--- a/ITEST/itest.EPBDS-7787/openl-repository/deployments/EPBDS-7787-project1/policy_1.xlsx
+++ b/ITEST/itest.EPBDS-7787/openl-repository/deployments/EPBDS-7787-project1/policy_1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvlad\Documents\EIS\OpenL\openl-pub\ITEST\itest.EPBDS-7787\openl-repository\deployments\EPBDS-7787-project1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\ITEST\itest.EPBDS-7787\openl-repository\deployments\EPBDS-7787-project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4124C8BD-F5CE-498D-8464-5B1E8A48F425}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="27795" windowHeight="12075"/>
+    <workbookView xWindow="3900" yWindow="1800" windowWidth="23880" windowHeight="16965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,7 +93,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -110,7 +111,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -138,7 +139,22 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -147,56 +163,29 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -204,15 +193,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -244,7 +224,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -336,6 +316,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -371,6 +368,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -546,35 +560,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="54.140625" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="47.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -582,35 +596,35 @@
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
@@ -638,7 +652,7 @@
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>43112</v>
       </c>
       <c r="D14" s="1">
@@ -649,54 +663,64 @@
       <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>43112</v>
       </c>
       <c r="D15" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="C5:D5"/>
@@ -708,7 +732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -720,7 +744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
